--- a/Documentos/RequisitosColetados.xlsx
+++ b/Documentos/RequisitosColetados.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="I2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
